--- a/biology/Botanique/Succotash/Succotash.xlsx
+++ b/biology/Botanique/Succotash/Succotash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le succotash (du narragansett sohquttahhash) est un plat de la cuisine américaine dont les principaux ingrédients sont les haricots de Lima et le maïs, éventuellement accompagnés de morceaux de viande ou de poisson salés. 
 Le nom est dérivé de msikwatash, terme de la langue de la tribu amérindienne des Narragansetts.
